--- a/biology/Mycologie/Leccinum_vulpinum/Leccinum_vulpinum.xlsx
+++ b/biology/Mycologie/Leccinum_vulpinum/Leccinum_vulpinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet renard, Bolet rude roux des pins
 Leccinum vulpinum, le Bolet renard, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Comestible, il est caractérisé par ses mèches rousses puis noires et son habitat sous pins.
@@ -512,19 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum vulpinum Watling[1].
-Synonymes
-Leccinum vulpinum a pour synonymes[1] :
-Boletus vulpinus (Watling) Hlaváček
-Boletus vulpinus Watling
-Krombholziella vulpina (Watling) Šutara
-Leccinum aurantiacum var. vulpinum (Watling) Pilát
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet renard[2].
-On le connait aussi sous le nom de : Bolet rude roux des pins[3].
-On lui confère également de façon populaire le nom vernaculaire vague et inexact de « Bolet orangé », au même titre que Leccinum aurantiacum, Leccinum versipelle, Leccinum albostipitatum, et Leccinum piceinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de « Bolet orangé » ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de « Pible », « Pible orange » ou « Pible rouge ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum vulpinum Watling.
 </t>
         </is>
       </c>
@@ -550,16 +554,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum vulpinum a pour synonymes :
+Boletus vulpinus (Watling) Hlaváček
+Boletus vulpinus Watling
+Krombholziella vulpina (Watling) Šutara
+Leccinum aurantiacum var. vulpinum (Watling) Pilát</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leccinum_vulpinum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_vulpinum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet renard.
+On le connait aussi sous le nom de : Bolet rude roux des pins.
+On lui confère également de façon populaire le nom vernaculaire vague et inexact de « Bolet orangé », au même titre que Leccinum aurantiacum, Leccinum versipelle, Leccinum albostipitatum, et Leccinum piceinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de « Bolet orangé » ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de « Pible », « Pible orange » ou « Pible rouge ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_vulpinum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_vulpinum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum vulpinum, le Bolet renard, sont les suivantes :
-Son chapeau est de couleur brun, orange, à rougeâtre[3].
-L'hyménophore présente des pores blancs, bruns à crème[3].
+Son chapeau est de couleur brun, orange, à rougeâtre.
+L'hyménophore présente des pores blancs, bruns à crème.
 Son stipe est d'abord orné de mèches d'abord rousses, faisant penser à celles de Leccinum aurantiacum, puis noires, rappelant celles de Leccinum versipelle.
-La chair est blanche à crème, d'une saveur douce. Elle vire lentement au rougeâtre/ rouge violacé à la coupe[3]
+La chair est blanche à crème, d'une saveur douce. Elle vire lentement au rougeâtre/ rouge violacé à la coupe
 </t>
         </is>
       </c>
